--- a/CaseAndFatalityDemographicsData/2021-04-23.xlsx
+++ b/CaseAndFatalityDemographicsData/2021-04-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\4.22.21 To Send\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00199983-FEEA-46D4-B827-6CC97471FDE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F189F554-0FBC-4B12-A3D0-41BEDC4E2F62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7005" yWindow="2280" windowWidth="21600" windowHeight="11385" tabRatio="806" firstSheet="3" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="806" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by Age Group" sheetId="3" r:id="rId1"/>
@@ -197,7 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -206,7 +206,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -215,12 +214,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -556,16 +549,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBE98AD-F551-4399-A212-2161860B6EB7}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -576,171 +569,171 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>271</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="B2" s="6">
+        <v>272</v>
+      </c>
+      <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>3.4824400210745447E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.4785722507129795E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>1326</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="B3" s="6">
+        <v>1336</v>
+      </c>
+      <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>1.7039540472121206E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.7085928407913752E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <v>3640</v>
-      </c>
-      <c r="C4" s="12">
-        <f t="shared" si="0"/>
-        <v>4.6775209139156247E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="6">
+        <v>3673</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="0"/>
+        <v>4.6973514253194022E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>15492</v>
-      </c>
-      <c r="C5" s="12">
-        <f t="shared" si="0"/>
-        <v>0.19907734614939795</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="6">
+        <v>15559</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="0"/>
+        <v>0.19898200606192371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>17054</v>
-      </c>
-      <c r="C6" s="12">
-        <f t="shared" si="0"/>
-        <v>0.21914956501625568</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="6">
+        <v>17118</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.21891985216067936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
-        <v>14955</v>
-      </c>
-      <c r="C7" s="12">
-        <f t="shared" si="0"/>
-        <v>0.19217671776815431</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="6">
+        <v>15007</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.19192255061194735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>12570</v>
-      </c>
-      <c r="C8" s="12">
-        <f t="shared" si="0"/>
-        <v>0.1615286755162621</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="6">
+        <v>12641</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16166408757817197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>4525</v>
-      </c>
-      <c r="C9" s="12">
-        <f t="shared" si="0"/>
-        <v>5.8147753119418139E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="6">
+        <v>4557</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" si="0"/>
+        <v>5.8278874068011202E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>3052</v>
-      </c>
-      <c r="C10" s="12">
-        <f t="shared" si="0"/>
-        <v>3.9219213816677159E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="6">
+        <v>3067</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9223459900502605E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <v>1845</v>
-      </c>
-      <c r="C11" s="12">
-        <f t="shared" si="0"/>
-        <v>2.3708862874105296E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="6">
+        <v>1858</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" si="0"/>
+        <v>2.3761717800826161E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
-        <v>1195</v>
-      </c>
-      <c r="C12" s="12">
-        <f t="shared" si="0"/>
-        <v>1.5356146956398822E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="6">
+        <v>1205</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.541058662540125E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
-        <v>1881</v>
-      </c>
-      <c r="C13" s="12">
-        <f t="shared" si="0"/>
-        <v>2.4171474832624423E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="6">
+        <v>1887</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" si="0"/>
+        <v>2.4132594989321295E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="6">
         <v>13</v>
       </c>
-      <c r="C14" s="12">
-        <f t="shared" si="0"/>
-        <v>1.6705431835412947E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="9">
+        <f t="shared" si="0"/>
+        <v>1.6625529139437033E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
         <f>SUM(B2:B14)</f>
-        <v>77819</v>
-      </c>
-      <c r="C15" s="11">
+        <v>78193</v>
+      </c>
+      <c r="C15" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -758,9 +751,9 @@
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -771,51 +764,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4">
-        <v>26252</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="B2" s="6">
+        <v>26430</v>
+      </c>
+      <c r="C2" s="9">
         <f>B2/$B$5</f>
-        <v>0.33734692041789283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.33800979627332373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4">
-        <v>50670</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="B3" s="6">
+        <v>50866</v>
+      </c>
+      <c r="C3" s="9">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.65112633161567224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.65051858862046474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>897</v>
       </c>
-      <c r="C4" s="12">
-        <f t="shared" si="0"/>
-        <v>1.1526747966434932E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1471615106211553E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>77819</v>
-      </c>
-      <c r="C5" s="11">
+        <v>78193</v>
+      </c>
+      <c r="C5" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -830,15 +823,15 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.87890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -849,87 +842,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="4">
-        <v>953</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="B2" s="6">
+        <v>955</v>
+      </c>
+      <c r="C2" s="9">
         <f>B2/$B$8</f>
-        <v>1.2246366568575797E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2213369483201821E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="4">
-        <v>12924</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="B3" s="6">
+        <v>12943</v>
+      </c>
+      <c r="C3" s="9">
         <f t="shared" ref="C3:C8" si="0">B3/$B$8</f>
-        <v>0.16607769310836684</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.16552632588594887</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4">
-        <v>28119</v>
-      </c>
-      <c r="C4" s="12">
-        <f t="shared" si="0"/>
-        <v>0.36133849059998202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="6">
+        <v>28163</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="0"/>
+        <v>0.36017290550305014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="4">
-        <v>508</v>
-      </c>
-      <c r="C5" s="12">
-        <f t="shared" si="0"/>
-        <v>6.5279687479921356E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="6">
+        <v>521</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="0"/>
+        <v>6.6630005243436116E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4">
-        <v>26773</v>
-      </c>
-      <c r="C6" s="12">
-        <f t="shared" si="0"/>
-        <v>0.34404194348423905</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="6">
+        <v>27030</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.34568311741460234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4">
-        <v>8542</v>
-      </c>
-      <c r="C7" s="12">
-        <f t="shared" si="0"/>
-        <v>0.10976753749084414</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="6">
+        <v>8581</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.10974128118885322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1">
         <f>SUM(B2:B7)</f>
-        <v>77819</v>
-      </c>
-      <c r="C8" s="11">
+        <v>78193</v>
+      </c>
+      <c r="C8" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -944,190 +937,190 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>6</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>1.2369093757730684E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2270691453463402E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>12</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>2.4738187515461368E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.4541382906926803E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>33</v>
       </c>
-      <c r="C4" s="12">
-        <f t="shared" si="0"/>
-        <v>6.8030015667518758E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="9">
+        <f t="shared" si="0"/>
+        <v>6.7488802994048716E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>237</v>
-      </c>
-      <c r="C5" s="12">
-        <f t="shared" si="0"/>
-        <v>4.8857920343036198E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="6">
+        <v>238</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="0"/>
+        <v>4.8673742765404831E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>792</v>
-      </c>
-      <c r="C6" s="12">
-        <f t="shared" si="0"/>
-        <v>1.6327203760204502E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="6">
+        <v>802</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="0"/>
+        <v>1.6401824242796081E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
-        <v>2340</v>
-      </c>
-      <c r="C7" s="12">
-        <f t="shared" si="0"/>
-        <v>4.8239465655149666E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="6">
+        <v>2371</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" si="0"/>
+        <v>4.8489682393602879E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>5395</v>
-      </c>
-      <c r="C8" s="12">
-        <f t="shared" si="0"/>
-        <v>0.11121876803826174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="6">
+        <v>5446</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.11137697609260282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>4526</v>
-      </c>
-      <c r="C9" s="12">
-        <f t="shared" si="0"/>
-        <v>9.3304197245815124E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="6">
+        <v>4577</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" si="0"/>
+        <v>9.360492463750332E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>5871</v>
-      </c>
-      <c r="C10" s="12">
-        <f t="shared" si="0"/>
-        <v>0.12103158241939474</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="6">
+        <v>5931</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.12129578501748574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <v>6505</v>
-      </c>
-      <c r="C11" s="12">
-        <f t="shared" si="0"/>
-        <v>0.13410159149006348</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="6">
+        <v>6557</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.13409820643393255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
-        <v>6452</v>
-      </c>
-      <c r="C12" s="12">
-        <f t="shared" si="0"/>
-        <v>0.13300898820813062</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="6">
+        <v>6491</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.13274843037405157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
-        <v>16339</v>
-      </c>
-      <c r="C13" s="12">
-        <f t="shared" si="0"/>
-        <v>0.3368310381792694</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="6">
+        <v>16433</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.33607378775794017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="6">
         <v>0</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <f>SUM(B2:B14)</f>
-        <v>48508</v>
-      </c>
-      <c r="C15" s="15">
+        <v>48897</v>
+      </c>
+      <c r="C15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1142,13 +1135,13 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1158,51 +1151,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7">
-        <v>20338</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="B2" s="6">
+        <v>20506</v>
+      </c>
+      <c r="C2" s="9">
         <f>B2/$B$5</f>
-        <v>0.41927104807454441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.41937133157453421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="7">
-        <v>28169</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="B3" s="6">
+        <v>28390</v>
+      </c>
+      <c r="C3" s="9">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.58070833676919276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.58060821727304335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="12">
-        <f t="shared" si="0"/>
-        <v>2.0615156262884473E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="9">
+        <f t="shared" si="0"/>
+        <v>2.0451152422439004E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>48508</v>
-      </c>
-      <c r="C5" s="16">
+        <v>48897</v>
+      </c>
+      <c r="C5" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1216,16 +1209,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5030A505-56A3-4E91-AD33-A7ADAD482E9C}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.87890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1236,87 +1229,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="10">
-        <v>1020</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="B2">
+        <v>1028</v>
+      </c>
+      <c r="C2" s="9">
         <f>B2/$B$8</f>
-        <v>2.1027459388142163E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+        <v>2.1023784690267295E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="9">
-        <v>4845</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="B3">
+        <v>4899</v>
+      </c>
+      <c r="C3" s="9">
         <f t="shared" ref="C3:C8" si="0">B3/$B$8</f>
-        <v>9.9880432093675267E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+        <v>0.10019019571752869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="10">
-        <v>22534</v>
-      </c>
-      <c r="C4" s="12">
-        <f t="shared" si="0"/>
-        <v>0.46454193122783871</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="B4">
+        <v>22716</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="0"/>
+        <v>0.46456837842812443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="10">
-        <v>262</v>
-      </c>
-      <c r="C5" s="12">
-        <f t="shared" si="0"/>
-        <v>5.4011709408757318E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="B5">
+        <v>263</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="0"/>
+        <v>5.3786530871014586E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4">
-        <v>19822</v>
-      </c>
-      <c r="C6" s="12">
-        <f t="shared" si="0"/>
-        <v>0.408633627442896</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="B6">
+        <v>19965</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.40830725811399471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="10">
-        <v>25</v>
-      </c>
-      <c r="C7" s="12">
-        <f t="shared" si="0"/>
-        <v>5.153789065721118E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>26</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" si="0"/>
+        <v>5.3172996298341414E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>48508</v>
-      </c>
-      <c r="C8" s="16">
+        <v>48897</v>
+      </c>
+      <c r="C8" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
